--- a/momentum_summary.xlsx
+++ b/momentum_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shlomiasraf/Desktop/degree/MomentumProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F99A39-49BA-A242-92FD-325609F4CC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB46C56-66CC-664A-84C2-7D8DBECC4526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Wins in Momentum</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Total Cases Where Momentum Switched</t>
   </si>
   <si>
-    <t>Momentum Switched &amp; Different Winners</t>
+    <t xml:space="preserve">Positive Momentum Bias </t>
+  </si>
+  <si>
+    <t>Negative Momentum Bias</t>
+  </si>
+  <si>
+    <t>Momentum Switched &amp; Negative Winners</t>
+  </si>
+  <si>
+    <t>Momentum Switched &amp; Positive Winners</t>
   </si>
 </sst>
 </file>
@@ -100,12 +109,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -135,24 +162,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -493,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -505,257 +547,334 @@
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>66</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>57</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="E2" s="6">
         <v>49</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="6">
         <v>63</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="6">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="H2" s="2">
         <v>316</v>
       </c>
-      <c r="G2" s="2">
+      <c r="I2" s="2">
         <v>163</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <v>46</v>
       </c>
-      <c r="I2" s="2">
+      <c r="K2" s="2">
         <v>8</v>
       </c>
+      <c r="L2" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>59</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>63</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
+        <v>5.19</v>
+      </c>
+      <c r="E3" s="6">
         <v>57</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="6">
         <v>67</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="6">
+        <v>5.76</v>
+      </c>
+      <c r="H3" s="2">
         <v>304</v>
       </c>
-      <c r="G3" s="2">
+      <c r="I3" s="2">
         <v>147</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
         <v>51</v>
       </c>
-      <c r="I3" s="2">
+      <c r="K3" s="2">
         <v>4</v>
       </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>61</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>67</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
+        <v>5.41</v>
+      </c>
+      <c r="E4" s="6">
         <v>65</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="6">
         <v>64</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="6">
+        <v>6.04</v>
+      </c>
+      <c r="H4" s="2">
         <v>305</v>
       </c>
-      <c r="G4" s="2">
+      <c r="I4" s="2">
         <v>143</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>51</v>
       </c>
-      <c r="I4" s="2">
+      <c r="K4" s="2">
         <v>4</v>
       </c>
+      <c r="L4" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>53</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>59</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E5" s="6">
         <v>40</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="6">
         <v>70</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="H5" s="2">
         <v>304</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <v>138</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>56</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>8</v>
       </c>
+      <c r="L5" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>49</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>63</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
+        <v>5.04</v>
+      </c>
+      <c r="E6" s="6">
         <v>50</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="6">
         <v>65</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="H6" s="2">
         <v>316</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
         <v>134</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>52</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>2</v>
       </c>
+      <c r="L6" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="7">
         <f>SUM(B2:B6)</f>
         <v>288</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <f>SUM(C2:C6)</f>
         <v>309</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <f>SUM(D2:D6)</f>
+        <v>25.7</v>
+      </c>
+      <c r="E7" s="7">
+        <f>SUM(E2:E6)</f>
         <v>261</v>
       </c>
-      <c r="E7" s="3">
-        <f>SUM(E2:E6)</f>
+      <c r="F7" s="7">
+        <f>SUM(F2:F6)</f>
         <v>329</v>
       </c>
-      <c r="F7" s="3">
-        <f t="shared" ref="F7:I7" si="0">SUM(F2:F6)</f>
+      <c r="G7" s="7">
+        <f>SUM(G2:G6)</f>
+        <v>27.589999999999996</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" ref="H7:K7" si="0">SUM(H2:H6)</f>
         <v>1545</v>
       </c>
-      <c r="G7" s="3">
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>725</v>
       </c>
-      <c r="H7" s="3">
+      <c r="J7" s="3">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
+      <c r="L7" s="3">
+        <f t="shared" ref="L7" si="1">SUM(L2:L6)</f>
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5">
-        <f>B7 / (B7 + C7)</f>
-        <v>0.48241206030150752</v>
-      </c>
-      <c r="C8" s="5">
-        <f>C7 / (C7 + B7)</f>
-        <v>0.51758793969849248</v>
-      </c>
-      <c r="D8" s="5">
-        <f>D7 / (D7 + E7)</f>
-        <v>0.44237288135593222</v>
-      </c>
-      <c r="E8" s="5">
-        <f>E7 / (E7 + D7)</f>
-        <v>0.55762711864406778</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="B8" s="8">
+        <f>(B7+D7) / (B7 + C7)</f>
+        <v>0.5254606365159129</v>
+      </c>
+      <c r="C8" s="8">
+        <f>(C7-D7) / (C7 + B7)</f>
+        <v>0.4745393634840871</v>
+      </c>
+      <c r="D8" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="E8" s="8">
+        <f>(E7+G7) / (E7 + F7)</f>
+        <v>0.48913559322033895</v>
+      </c>
+      <c r="F8" s="8">
+        <f>(F7-G7) / (F7 + E7)</f>
+        <v>0.51086440677966105</v>
+      </c>
+      <c r="G8" s="6">
+        <v>57</v>
+      </c>
+      <c r="H8" s="2">
         <v>1545</v>
       </c>
-      <c r="G8" s="5">
-        <f>G7 / (F7)</f>
+      <c r="I8" s="4">
+        <f>I7 / (H7)</f>
         <v>0.46925566343042069</v>
       </c>
-      <c r="H8" s="6">
+      <c r="J8" s="2">
         <v>256</v>
       </c>
-      <c r="I8" s="5">
-        <f>I7 / (H7)</f>
+      <c r="K8" s="4">
+        <f>K7 / (J7)</f>
         <v>0.1015625</v>
+      </c>
+      <c r="L8" s="4">
+        <f>L7 / (J7)</f>
+        <v>9.375E-2</v>
       </c>
     </row>
   </sheetData>
